--- a/Diagrama de Gantt TFG.xlsx
+++ b/Diagrama de Gantt TFG.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="AquestLlibreDeTreball"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E654FEF-91FD-49E6-90D3-391FFEB7C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA61D0-3356-4D9C-9A54-6A5AB2879725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3059,8 +3059,8 @@
   </sheetPr>
   <dimension ref="A1:BU40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="30" zoomScaleNormal="30" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="CE15" sqref="CE15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:BB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C7" s="71">
         <f>F33</f>
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
@@ -5303,8 +5303,8 @@
       <c r="D18" s="17"/>
       <c r="E18" s="58"/>
       <c r="F18" s="59">
-        <f>F17+G17-3</f>
-        <v>44660</v>
+        <f>F17+G17-2</f>
+        <v>44661</v>
       </c>
       <c r="G18" s="76">
         <v>1</v>
@@ -5374,9 +5374,9 @@
         <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
-      <c r="Y18" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="Y18" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="Z18" s="14" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="G19" s="76">
         <f>G20+G21+G22</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H19" s="17"/>
       <c r="I19" s="14" t="str">
@@ -5903,7 +5903,7 @@
         <v>44678</v>
       </c>
       <c r="G21" s="76">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H21" s="17"/>
       <c r="I21" s="14" t="str">
@@ -6099,7 +6099,7 @@
       <c r="E22" s="58"/>
       <c r="F22" s="59">
         <f>F21+G21</f>
-        <v>44693</v>
+        <v>44688</v>
       </c>
       <c r="G22" s="76">
         <v>5</v>
@@ -6298,7 +6298,7 @@
       <c r="E23" s="58"/>
       <c r="F23" s="59">
         <f>F22+G22-1-1</f>
-        <v>44696</v>
+        <v>44691</v>
       </c>
       <c r="G23" s="76">
         <v>1</v>
@@ -6408,9 +6408,9 @@
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AI23" s="14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+      <c r="AI23" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="AJ23" s="14" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -6495,11 +6495,11 @@
       <c r="E24" s="58"/>
       <c r="F24" s="59">
         <f>F19+G19</f>
-        <v>44698</v>
+        <v>44693</v>
       </c>
       <c r="G24" s="76">
-        <f>G25+G26</f>
-        <v>10</v>
+        <f>G25+G26+G27</f>
+        <v>15</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="14" t="str">
@@ -6695,10 +6695,10 @@
       <c r="E25" s="58"/>
       <c r="F25" s="59">
         <f>F24</f>
-        <v>44698</v>
+        <v>44693</v>
       </c>
       <c r="G25" s="76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="14" t="str">
@@ -6894,10 +6894,10 @@
       <c r="E26" s="58"/>
       <c r="F26" s="59">
         <f>F25+G25</f>
-        <v>44703</v>
+        <v>44699</v>
       </c>
       <c r="G26" s="76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="14" t="str">
@@ -7093,10 +7093,10 @@
       <c r="E27" s="58"/>
       <c r="F27" s="59">
         <f>F26+G26</f>
-        <v>44708</v>
+        <v>44705</v>
       </c>
       <c r="G27" s="76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="14" t="str">
@@ -8086,8 +8086,8 @@
       <c r="D32" s="17"/>
       <c r="E32" s="27"/>
       <c r="F32" s="37">
-        <f>F31+G31-1-1</f>
-        <v>44726</v>
+        <f>F31+G31-1</f>
+        <v>44727</v>
       </c>
       <c r="G32" s="76">
         <v>1</v>
@@ -8245,9 +8245,9 @@
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AU32" s="14" t="str">
+      <c r="AU32" s="14">
         <f t="shared" ca="1" si="9"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AV32" s="14" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8283,7 +8283,7 @@
       <c r="D33" s="17"/>
       <c r="E33" s="27"/>
       <c r="F33" s="37">
-        <v>44615</v>
+        <v>44617</v>
       </c>
       <c r="G33" s="76">
         <v>120</v>
@@ -8481,8 +8481,8 @@
       <c r="D34" s="80"/>
       <c r="E34" s="81"/>
       <c r="F34" s="82">
-        <f>F33+G33-2</f>
-        <v>44733</v>
+        <f>F33+G33-1</f>
+        <v>44736</v>
       </c>
       <c r="G34" s="83">
         <v>1</v>
@@ -8648,13 +8648,13 @@
         <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
-      <c r="AW34" s="14">
+      <c r="AW34" s="14" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v/>
+      </c>
+      <c r="AX34" s="14">
         <f t="shared" ca="1" si="9"/>
         <v>1</v>
-      </c>
-      <c r="AX34" s="14" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
       </c>
       <c r="AY34" s="14" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11011,7 +11011,7 @@
       <c r="E13" s="58"/>
       <c r="F13" s="59">
         <f ca="1">TODAY()+5</f>
-        <v>44744</v>
+        <v>44747</v>
       </c>
       <c r="G13" s="60">
         <v>1</v>
